--- a/Simulasi Excel.xlsx
+++ b/Simulasi Excel.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Kuliah\Semester 6\Pemodelan dan Simulasi Data D (Vinna Rahmayanti)\UTS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D528EB6-9D5F-4AEB-9D81-6066104B5878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5196" yWindow="1596" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +346,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,4),12,2,33,53,123,42)</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Simulasi Excel.xlsx
+++ b/Simulasi Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Kuliah\Semester 6\Pemodelan dan Simulasi Data D (Vinna Rahmayanti)\UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D528EB6-9D5F-4AEB-9D81-6066104B5878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F333FFC-4021-4B61-90DB-9F5987F818E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5196" yWindow="1596" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,108 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>total price</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>hari</t>
+  </si>
+  <si>
+    <t>jumlah customer per hari</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jumlah donat perlusin yang diorder per customer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>harga donat terjual perhari</t>
+  </si>
+  <si>
+    <t>jumlah donat diorder seluruh customer perhari</t>
+  </si>
+  <si>
+    <t>jumlah customer perhari
+(Minutes)</t>
+  </si>
+  <si>
+    <t>peluang</t>
+  </si>
+  <si>
+    <t>Cumulative
+Probability</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>jumlah donat perlusin yang dioerder per customer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>rata-rata penjualan donat setiap hari (satuan : lusin)</t>
+  </si>
+  <si>
+    <t>jumlah donat perlusin yang diorder per customer/jumlah hari</t>
+  </si>
+  <si>
+    <t>rata-rata customer membeli berapa lusin donat</t>
+  </si>
+  <si>
+    <t>jumah donat diorder seluruh customer perhari/jumlah hari</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,18 +143,198 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -65,8 +344,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,21 +704,2924 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B6"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="11" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="22" customWidth="1"/>
+    <col min="6" max="8" width="9.5546875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="22" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="26" max="26" width="18.88671875" customWidth="1"/>
+    <col min="27" max="27" width="9.109375" customWidth="1"/>
+    <col min="35" max="35" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,4),12,2,33,53,123,42)</f>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" ref="C4:C69" ca="1" si="0">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
+        <f ca="1">C4*85000</f>
+        <v>170000</v>
+      </c>
+      <c r="E4" s="9">
+        <f ca="1">B4*C4</f>
+        <v>20</v>
+      </c>
+      <c r="F4"/>
+      <c r="H4" s="23">
+        <v>8</v>
+      </c>
+      <c r="I4" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="J4" s="16">
+        <f>I4</f>
+        <v>0.35</v>
+      </c>
+      <c r="K4" s="23">
+        <v>1</v>
+      </c>
+      <c r="L4" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="M4" s="16">
+        <f>L4</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="9">
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" ref="D5:D68" ca="1" si="1">C5*85000</f>
+        <v>255000</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" ref="E5:E68" ca="1" si="2">B5*C5</f>
+        <v>30</v>
+      </c>
+      <c r="F5"/>
+      <c r="H5" s="23">
+        <v>10</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="16">
+        <f>J4+I5</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="K5" s="23">
+        <v>2</v>
+      </c>
+      <c r="L5" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="M5" s="16">
+        <f>M4+L5</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="F6"/>
+      <c r="H6" s="23">
+        <v>12</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="16">
+        <f>J5+I6</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="K6" s="23">
+        <v>3</v>
+      </c>
+      <c r="L6" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="16">
+        <f>M5+L6</f>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F7"/>
+      <c r="H7" s="25">
+        <v>14</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="17">
+        <f>J6+I7</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="K7" s="25">
+        <v>4</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="17">
+        <f>M6+L7</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>85000</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F9"/>
+      <c r="H9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F10"/>
+      <c r="H10" s="19">
+        <v>1</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="19">
+        <f ca="1">SUM(B4:B103)/100</f>
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F11"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F12"/>
+      <c r="H12" s="19">
+        <v>2</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>85000</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F13"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F14"/>
+      <c r="H14" s="19">
+        <v>3</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="19">
+        <f ca="1">SUM(E4:E103)/100</f>
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>85000</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F15"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C17" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>85000</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C18" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C19" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>85000</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>20</v>
+      </c>
+      <c r="B23" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>21</v>
+      </c>
+      <c r="B24" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>22</v>
+      </c>
+      <c r="B25" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>85000</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>85000</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C32" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D32" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C33" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>85000</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C36" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D38" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C39" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D39" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E39" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C40" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D40" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C41" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>85000</v>
+      </c>
+      <c r="E41" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C42" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>85000</v>
+      </c>
+      <c r="E42" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C43" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D43" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>41</v>
+      </c>
+      <c r="B44" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C44" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E44" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>42</v>
+      </c>
+      <c r="B45" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C45" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D45" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="E45" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>43</v>
+      </c>
+      <c r="B46" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C46" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D46" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E46" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>44</v>
+      </c>
+      <c r="B47" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C47" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D47" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="E47" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>45</v>
+      </c>
+      <c r="B48" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C48" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D48" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="E48" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>46</v>
+      </c>
+      <c r="B49" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C49" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D49" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E49" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>47</v>
+      </c>
+      <c r="B50" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C50" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D50" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E50" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>48</v>
+      </c>
+      <c r="B51" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C51" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D51" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="E51" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>49</v>
+      </c>
+      <c r="B52" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C52" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D52" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="E52" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>50</v>
+      </c>
+      <c r="B53" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C53" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D53" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E53" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>51</v>
+      </c>
+      <c r="B54" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C54" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D54" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E54" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>52</v>
+      </c>
+      <c r="B55" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C55" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>85000</v>
+      </c>
+      <c r="E55" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <v>53</v>
+      </c>
+      <c r="B56" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C56" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D56" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E56" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>54</v>
+      </c>
+      <c r="B57" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C57" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D57" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E57" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>55</v>
+      </c>
+      <c r="B58" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C58" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D58" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E58" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>56</v>
+      </c>
+      <c r="B59" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C59" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D59" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="E59" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>57</v>
+      </c>
+      <c r="B60" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C60" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D60" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E60" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>58</v>
+      </c>
+      <c r="B61" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C61" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D61" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="E61" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>59</v>
+      </c>
+      <c r="B62" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C62" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D62" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E62" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>60</v>
+      </c>
+      <c r="B63" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C63" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>85000</v>
+      </c>
+      <c r="E63" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>61</v>
+      </c>
+      <c r="B64" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C64" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D64" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E64" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>62</v>
+      </c>
+      <c r="B65" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C65" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D65" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="E65" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>63</v>
+      </c>
+      <c r="B66" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C66" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D66" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E66" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <v>64</v>
+      </c>
+      <c r="B67" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C67" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D67" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>340000</v>
+      </c>
+      <c r="E67" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>65</v>
+      </c>
+      <c r="B68" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C68" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D68" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255000</v>
+      </c>
+      <c r="E68" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <v>66</v>
+      </c>
+      <c r="B69" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C69" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D69" s="9">
+        <f t="shared" ref="D69:D103" ca="1" si="3">C69*85000</f>
+        <v>340000</v>
+      </c>
+      <c r="E69" s="9">
+        <f t="shared" ref="E69:E103" ca="1" si="4">B69*C69</f>
+        <v>40</v>
+      </c>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
+        <v>67</v>
+      </c>
+      <c r="B70" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C70" s="9">
+        <f t="shared" ref="C70:C103" ca="1" si="5">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="D70" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>85000</v>
+      </c>
+      <c r="E70" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <v>68</v>
+      </c>
+      <c r="B71" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C71" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D71" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>170000</v>
+      </c>
+      <c r="E71" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <v>69</v>
+      </c>
+      <c r="B72" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C72" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D72" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="E72" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
+        <v>70</v>
+      </c>
+      <c r="B73" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C73" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D73" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>85000</v>
+      </c>
+      <c r="E73" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
+        <v>71</v>
+      </c>
+      <c r="B74" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C74" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D74" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>170000</v>
+      </c>
+      <c r="E74" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
+        <v>72</v>
+      </c>
+      <c r="B75" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C75" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D75" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>170000</v>
+      </c>
+      <c r="E75" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
+        <v>73</v>
+      </c>
+      <c r="B76" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C76" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D76" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>170000</v>
+      </c>
+      <c r="E76" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="9">
+        <v>74</v>
+      </c>
+      <c r="B77" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C77" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D77" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="E77" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
+        <v>75</v>
+      </c>
+      <c r="B78" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C78" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D78" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>340000</v>
+      </c>
+      <c r="E78" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="9">
+        <v>76</v>
+      </c>
+      <c r="B79" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C79" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D79" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>340000</v>
+      </c>
+      <c r="E79" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
+        <v>77</v>
+      </c>
+      <c r="B80" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C80" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D80" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>340000</v>
+      </c>
+      <c r="E80" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="9">
+        <v>78</v>
+      </c>
+      <c r="B81" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C81" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D81" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>170000</v>
+      </c>
+      <c r="E81" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
+        <v>79</v>
+      </c>
+      <c r="B82" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C82" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D82" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="E82" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
+        <v>80</v>
+      </c>
+      <c r="B83" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C83" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D83" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>85000</v>
+      </c>
+      <c r="E83" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="9">
+        <v>81</v>
+      </c>
+      <c r="B84" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C84" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D84" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="E84" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="9">
+        <v>82</v>
+      </c>
+      <c r="B85" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C85" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D85" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>340000</v>
+      </c>
+      <c r="E85" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
+        <v>83</v>
+      </c>
+      <c r="B86" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C86" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D86" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>85000</v>
+      </c>
+      <c r="E86" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
+        <v>84</v>
+      </c>
+      <c r="B87" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C87" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D87" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>85000</v>
+      </c>
+      <c r="E87" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="9">
+        <v>85</v>
+      </c>
+      <c r="B88" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C88" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D88" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>340000</v>
+      </c>
+      <c r="E88" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
+        <v>86</v>
+      </c>
+      <c r="B89" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C89" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D89" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>85000</v>
+      </c>
+      <c r="E89" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
+        <v>87</v>
+      </c>
+      <c r="B90" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C90" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D90" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="E90" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
+        <v>88</v>
+      </c>
+      <c r="B91" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C91" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D91" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>85000</v>
+      </c>
+      <c r="E91" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
+        <v>89</v>
+      </c>
+      <c r="B92" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C92" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>85000</v>
+      </c>
+      <c r="E92" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
+        <v>90</v>
+      </c>
+      <c r="B93" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C93" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D93" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>170000</v>
+      </c>
+      <c r="E93" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
+        <v>91</v>
+      </c>
+      <c r="B94" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C94" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D94" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>85000</v>
+      </c>
+      <c r="E94" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
+        <v>92</v>
+      </c>
+      <c r="B95" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C95" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D95" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>340000</v>
+      </c>
+      <c r="E95" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="9">
+        <v>93</v>
+      </c>
+      <c r="B96" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C96" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D96" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>340000</v>
+      </c>
+      <c r="E96" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="9">
+        <v>94</v>
+      </c>
+      <c r="B97" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>12</v>
+      </c>
+      <c r="C97" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D97" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>170000</v>
+      </c>
+      <c r="E97" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="9">
+        <v>95</v>
+      </c>
+      <c r="B98" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>14</v>
+      </c>
+      <c r="C98" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D98" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="E98" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="9">
+        <v>96</v>
+      </c>
+      <c r="B99" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C99" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D99" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>340000</v>
+      </c>
+      <c r="E99" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="9">
+        <v>97</v>
+      </c>
+      <c r="B100" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C100" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D100" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>255000</v>
+      </c>
+      <c r="E100" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="9">
+        <v>98</v>
+      </c>
+      <c r="B101" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C101" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D101" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>170000</v>
+      </c>
+      <c r="E101" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="9">
+        <v>99</v>
+      </c>
+      <c r="B102" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>8</v>
+      </c>
+      <c r="C102" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D102" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>85000</v>
+      </c>
+      <c r="E102" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="9">
+        <v>100</v>
+      </c>
+      <c r="B103" s="9">
+        <f ca="1">INDEX(H$4:H$7, RANDBETWEEN(1, ROWS(H$4:H$7)), 1)</f>
+        <v>10</v>
+      </c>
+      <c r="C103" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D103" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>85000</v>
+      </c>
+      <c r="E103" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H1:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>